--- a/biology/Zoologie/Formation_d'Aguja/Formation_d'Aguja.xlsx
+++ b/biology/Zoologie/Formation_d'Aguja/Formation_d'Aguja.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Formation_d%27Aguja</t>
+          <t>Formation_d'Aguja</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,74 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Formation d'Aguja est une formation géologique située au Texas, en Amérique du Nord, dont les strates datent du Crétacé supérieur[1] à cheval sur les étages du Campanien et du Maastrichtien entre environ −80 et −68 Ma (millions d'années).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Formation d'Aguja est une formation géologique située au Texas, en Amérique du Nord, dont les strates datent du Crétacé supérieur à cheval sur les étages du Campanien et du Maastrichtien entre environ −80 et −68 Ma (millions d'années).
 Des restes de dinosaures figurent parmi les fossiles retrouvés dans la formation.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Formation_d%27Aguja</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Formation_d%27Aguja</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Invertébrés</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ammonites</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Formation_d%27Aguja</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Formation_d%27Aguja</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Vertébrés</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Crurotarsiens
-Ornithischiens
-Saurischiens
-Tortues</t>
         </is>
       </c>
     </row>
